--- a/Data/UnemploymentModule.xlsx
+++ b/Data/UnemploymentModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDE438F-37D7-DF41-9503-DE4E3A72CECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696ACD45-15E3-E34A-B990-406807A59600}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="460" windowWidth="27640" windowHeight="15960" xr2:uid="{233277C5-F211-084D-99D1-B9E885C54C23}"/>
+    <workbookView xWindow="35280" yWindow="4040" windowWidth="27640" windowHeight="15960" xr2:uid="{233277C5-F211-084D-99D1-B9E885C54C23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Question</t>
   </si>
@@ -47,27 +47,13 @@
 • Don't qualify</t>
   </si>
   <si>
-    <t xml:space="preserve">[If yes to apply for unemployment benefits]
-Did you receive benefits?
-</t>
-  </si>
-  <si>
     <t>• Yes, I received unemployment benefits, but not the $600 unemployment bonus related to COVID-19
 • Yes, I received unemployment benefits, including the $600 unemployment bonus related to COVID-19
 • No, I did not receive unemployment benefits</t>
   </si>
   <si>
-    <t xml:space="preserve">[If yes to apply for unemployment benefits]
-Are you currently receiving unemployment benefits?
-</t>
-  </si>
-  <si>
     <t>• Yes
 • No</t>
-  </si>
-  <si>
-    <t>[If yes to currently receiving unemployment benefits]
-Are you worried about losing your unemployment benefits?</t>
   </si>
   <si>
     <t>• Not at all worried
@@ -77,10 +63,6 @@
 • Extremely worried</t>
   </si>
   <si>
-    <t>[If yes to received unemployment benefits]
-Have you recently lost your unemployment benfits?</t>
-  </si>
-  <si>
     <t>• Yes
 • No
 • Not Applicable</t>
@@ -93,10 +75,6 @@
 • Yes, I was approved and received them
 • No
 • Not applicable</t>
-  </si>
-  <si>
-    <t>[If yes  to approved to receive unemployment benefits]
-How difficult was it to navigate the application process?</t>
   </si>
   <si>
     <t>• Very Difficult
@@ -106,9 +84,6 @@
 • Very Easy</t>
   </si>
   <si>
-    <t>Frequency</t>
-  </si>
-  <si>
     <t>19, 21, 23, 25, 27, 35, 39</t>
   </si>
   <si>
@@ -116,6 +91,34 @@
   </si>
   <si>
     <t>21, 23, 25, 27, 35, 39</t>
+  </si>
+  <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[If yes to apply for unemployment benefits]
+Did you receive benefits?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[If yes to apply for unemployment benefits]
+Are you currently receiving unemployment benefits?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed by RAPID Team </t>
+  </si>
+  <si>
+    <t>[If yes to currently receiving unemployment benefits]
+Are you worried about losing your unemployment benefits?</t>
+  </si>
+  <si>
+    <t>[If yes to received unemployment benefits]
+Have you recently lost your unemployment benfits?</t>
+  </si>
+  <si>
+    <t>[If yes  to approved to receive unemployment benefits]
+How difficult was it to navigate the application process?</t>
   </si>
 </sst>
 </file>
@@ -151,13 +154,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,16 +481,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12962355-12FE-4248-B72D-BD79058C28A5}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="5" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="36" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="22.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -498,10 +505,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -511,89 +518,103 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="D5" s="3"/>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/UnemploymentModule.xlsx
+++ b/Data/UnemploymentModule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696ACD45-15E3-E34A-B990-406807A59600}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB730689-D4E8-9949-A5EA-CCBABA74B069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35280" yWindow="4040" windowWidth="27640" windowHeight="15960" xr2:uid="{233277C5-F211-084D-99D1-B9E885C54C23}"/>
+    <workbookView xWindow="7280" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{233277C5-F211-084D-99D1-B9E885C54C23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,15 +84,6 @@
 • Very Easy</t>
   </si>
   <si>
-    <t>19, 21, 23, 25, 27, 35, 39</t>
-  </si>
-  <si>
-    <t>1 to 21, 23, 25, 27, 35, 39</t>
-  </si>
-  <si>
-    <t>21, 23, 25, 27, 35, 39</t>
-  </si>
-  <si>
     <t>Source Link</t>
   </si>
   <si>
@@ -119,6 +110,15 @@
   <si>
     <t>[If yes  to approved to receive unemployment benefits]
 How difficult was it to navigate the application process?</t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 35, 39, 43</t>
+  </si>
+  <si>
+    <t>1 to 21, 23, 25, 27, 35, 39, 43</t>
+  </si>
+  <si>
+    <t>21, 23, 25, 27, 35, 39, 43</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12962355-12FE-4248-B72D-BD79058C28A5}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -519,71 +519,71 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -594,26 +594,26 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data/UnemploymentModule.xlsx
+++ b/Data/UnemploymentModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4032D7C-DAD3-4049-B538-7DA73B5D3C5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15354FD-AC33-3A4C-BD19-017169770DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42100" yWindow="-2160" windowWidth="23200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,21 +110,21 @@
 • Very Easy</t>
   </si>
   <si>
-    <t>19, 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59</t>
-  </si>
-  <si>
-    <t>1 to 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59</t>
-  </si>
-  <si>
-    <t>21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59</t>
-  </si>
-  <si>
     <t>• Yes, I received unemployment benefits, but not the $300 unemployment bonus related to COVID-19
 • Yes, I received unemployment benefits, including the $300 unemployment bonus related to COVID-19
 • No, I did not receive unemployment benefits</t>
   </si>
   <si>
-    <t>51, 55, 59</t>
+    <t>19, 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67</t>
+  </si>
+  <si>
+    <t>21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67</t>
+  </si>
+  <si>
+    <t>51, 55, 59, 67</t>
+  </si>
+  <si>
+    <t>1 to 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67</t>
   </si>
 </sst>
 </file>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
@@ -1431,14 +1431,14 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">

--- a/Data/UnemploymentModule.xlsx
+++ b/Data/UnemploymentModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15354FD-AC33-3A4C-BD19-017169770DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B6EB9F-5DE6-964A-B183-027D30E61AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="14280" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,16 +115,16 @@
 • No, I did not receive unemployment benefits</t>
   </si>
   <si>
-    <t>19, 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67</t>
-  </si>
-  <si>
-    <t>21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67</t>
-  </si>
-  <si>
-    <t>51, 55, 59, 67</t>
-  </si>
-  <si>
-    <t>1 to 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67</t>
+    <t>19, 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67, 71, 75</t>
+  </si>
+  <si>
+    <t>21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67, 71, 75</t>
+  </si>
+  <si>
+    <t>51, 55, 59, 67, 71, 75</t>
+  </si>
+  <si>
+    <t>1 to 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67, 71, 75</t>
   </si>
 </sst>
 </file>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Data/UnemploymentModule.xlsx
+++ b/Data/UnemploymentModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B6EB9F-5DE6-964A-B183-027D30E61AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{679BE7FD-71BB-504F-909A-78497680B353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="14280" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="14280" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Question</t>
   </si>
@@ -115,16 +115,19 @@
 • No, I did not receive unemployment benefits</t>
   </si>
   <si>
-    <t>19, 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67, 71, 75</t>
-  </si>
-  <si>
-    <t>21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67, 71, 75</t>
-  </si>
-  <si>
-    <t>51, 55, 59, 67, 71, 75</t>
-  </si>
-  <si>
-    <t>1 to 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67, 71, 75</t>
+    <t>1 to 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67, 71, 75, 83, 87</t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 35, 39, 43, 47, 51, 55,  59, 67, 71, 75, 83, 87</t>
+  </si>
+  <si>
+    <t>19, 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67, 71, 75, 83, 87</t>
+  </si>
+  <si>
+    <t>21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67, 71, 75, 83, 87</t>
+  </si>
+  <si>
+    <t>51, 55, 59, 67, 71, 75, 83, 87</t>
   </si>
 </sst>
 </file>
@@ -1365,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1408,7 +1411,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
@@ -1438,7 +1441,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
@@ -1453,7 +1456,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1468,7 +1471,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1483,7 +1486,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1498,7 +1501,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1513,7 +1516,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">

--- a/Data/UnemploymentModule.xlsx
+++ b/Data/UnemploymentModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{679BE7FD-71BB-504F-909A-78497680B353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ACF929F-4D14-1B4B-8BCE-F3A865598B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="500" windowWidth="14280" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13500" yWindow="500" windowWidth="15420" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
-  </si>
-  <si>
     <t>Have you applied for unemployment benefits at any time over the past 3 months?</t>
   </si>
   <si>
@@ -48,17 +45,9 @@
     <t xml:space="preserve">Developed by RAPID Team </t>
   </si>
   <si>
-    <t>19, 21, 23, 25, 27, 35, 39, 43, 47</t>
-  </si>
-  <si>
     <t xml:space="preserve">[If yes to apply for unemployment benefits]
 Did you receive benefits?
 </t>
-  </si>
-  <si>
-    <t>• Yes, I received unemployment benefits, but not the $600 unemployment bonus related to COVID-19
-• Yes, I received unemployment benefits, including the $600 unemployment bonus related to COVID-19
-• No, I did not receive unemployment benefits</t>
   </si>
   <si>
     <t xml:space="preserve">[If yes to apply for unemployment benefits]
@@ -110,24 +99,54 @@
 • Very Easy</t>
   </si>
   <si>
-    <t>• Yes, I received unemployment benefits, but not the $300 unemployment bonus related to COVID-19
-• Yes, I received unemployment benefits, including the $300 unemployment bonus related to COVID-19
+    <t>• Yes, I received unemployment benefits, but not the $600 unemployment bonus related to COVID-Aug 10 - Aug 13
+• Yes, I received unemployment benefits, including the $600 unemployment bonus related to COVID-Aug 10 - Aug 13
 • No, I did not receive unemployment benefits</t>
   </si>
   <si>
-    <t>1 to 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67, 71, 75, 83, 87</t>
-  </si>
-  <si>
-    <t>19, 21, 23, 25, 27, 35, 39, 43, 47, 51, 55,  59, 67, 71, 75, 83, 87</t>
-  </si>
-  <si>
-    <t>19, 21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67, 71, 75, 83, 87</t>
-  </si>
-  <si>
-    <t>21, 23, 25, 27, 35, 39, 43, 47, 51, 55, 59, 67, 71, 75, 83, 87</t>
-  </si>
-  <si>
-    <t>51, 55, 59, 67, 71, 75, 83, 87</t>
+    <t>• Yes, I received unemployment benefits, but not the $300 unemployment bonus related to COVID-Aug 10 - Aug 13
+• Yes, I received unemployment benefits, including the $300 unemployment bonus related to COVID-Aug 10 - Aug 13
+• No, I did not receive unemployment benefits</t>
+  </si>
+  <si>
+    <t>Aug 10 - Aug 13, Aug 24 - Aug Oct 5 - Oct 8, Sept 8 - Sept 10, Sept 21 - Sept 24, Oct 5 - Oct 8, Dec 1 - Dec 3, Jan 5 - Jan 7, Feb 3 - Feb 6, March 2 - March 5</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
+  </si>
+  <si>
+    <t>Aug 10 - Aug 13, Aug 24 - Aug Oct 5 - Oct 8, Sept 8 - Sept 10, Sept 21 - Sept 24, Oct 5 - Oct 8, Dec 1 - Dec 3, Jan 5 - Jan 7, Feb 3 - Feb 6, March 2 - March 5, March 31 - April 2, April 28 - May 1, May 25 - May 28, July 21 - July 23, Aug 16 - Aug 20, September 15 - September 17, November 10 - November 16, December 8 - December 14</t>
+  </si>
+  <si>
+    <t>March 31 - April 2, April 28 - May 1, May 25 - May 28, July 21 - July 23, Aug 16 - Aug 20, September 15 - September 17, November 10 - November 16, December 8 - December 14</t>
+  </si>
+  <si>
+    <t>Aug 10 - Aug 13, Aug 24 - Aug Oct 5 - Oct 8, Sept 8 - Sept 10, Sept 21 - Sept 24, Oct 5 - Oct 8, Dec 1 - Dec 3, Jan 5 - Jan 7, Feb 3 - Feb 6, March 2 - March 5, March 31 - April 2, April 28 - May 1,  May 25 - May 28, July 21 - July 23, Aug 16 - Aug 20, September 15 - September 17, November 10 - November 16, December 8 - December 14</t>
+  </si>
+  <si>
+    <t>Aug 24 - Aug Oct 5 - Oct 8, Sept 8 - Sept 10, Sept 21 - Sept 24, Oct 5 - Oct 8, Dec 1 - Dec 3, Jan 5 - Jan 7, Feb 3 - Feb 6, March 2 - March 5, March 31 - April 2, April 28 - May 1, May 25 - May 28, July 21 - July 23, Aug 16 - Aug 20, September 15 - September 17, November 10 - November 16, December 8 - December 14</t>
+  </si>
+  <si>
+    <t>April 6 - April 13
+April 14 - April 20 
+April 21 - April 27
+April 28 - May 04 
+May 05 - May 11
+May 11 - May 18
+May 18 - May 21
+May 25 - May 28 
+June 1 - June 4 
+June 8 - June 11
+June 15 - June 18
+June 22 - June 25
+June 29 - July 2
+July 6 - July 9
+July 13 - July 16
+July 20 - July 23
+July 27 -July 30 
+Aug 03 - Aug 07
+Aug 10 - Aug 13
+Aug 17 - Aug 20 , Aug 24 - Aug Oct 5 - Oct 8, Sept 8 - Sept 10, Sept 21 - Sept 24, Oct 5 - Oct 8, Dec 1 - Dec 3, Jan 5 - Jan 7, Feb 3 - Feb 6, March 2 - March 5, March 31 - April 2, April 28 - May 1, May 25 - May 28, July 21 - July 23, Aug 16 - Aug 20, September 15 - September 17, November 10 - November 16, December 8 - December 14</t>
   </si>
 </sst>
 </file>
@@ -1368,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1395,109 +1414,109 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="248" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="6" t="s">
@@ -1506,13 +1525,13 @@
     </row>
     <row r="9" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="6" t="s">

--- a/Data/UnemploymentModule.xlsx
+++ b/Data/UnemploymentModule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,18 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,6 +45,9 @@
     <t>Source Link</t>
   </si>
   <si>
+    <t>Dates Used</t>
+  </si>
+  <si>
     <t>Have you applied for unemployment benefits at any time over the past 3 months?</t>
   </si>
   <si>
@@ -45,11 +59,30 @@
     <t xml:space="preserve">Developed by RAPID Team </t>
   </si>
   <si>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 12/01/2020-12/03/2020 01/05/2021-01/07/2021 02/03/2021-02/06/2021 03/02/2021-03/05/2021  03/31/2021-04/02/2021   04/28/2021-05/01/2021  05/25/2021-05/28/2021 07/21/2021-07/23/2021  08/16/2021-08/20/2021 09/15/2021-09/17/2021  11/10/2021-11/16/2021 12/08/2021-12/14/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">[If yes to apply for unemployment benefits]
 Did you receive benefits?
 </t>
   </si>
   <si>
+    <t>• Yes, I received unemployment benefits, but not the $600 unemployment bonus related to COVID-Aug 10 - Aug 13
+• Yes, I received unemployment benefits, including the $600 unemployment bonus related to COVID-Aug 10 - Aug 13
+• No, I did not receive unemployment benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 12/01/2020-12/03/2020 01/05/2021-01/07/2021 02/03/2021-02/06/2021 03/02/2021-03/05/2021  </t>
+  </si>
+  <si>
+    <t>• Yes, I received unemployment benefits, but not the $300 unemployment bonus related to COVID-Aug 10 - Aug 13
+• Yes, I received unemployment benefits, including the $300 unemployment bonus related to COVID-Aug 10 - Aug 13
+• No, I did not receive unemployment benefits</t>
+  </si>
+  <si>
+    <t>03/31/2021-04/02/2021   04/28/2021-05/01/2021  05/25/2021-05/28/2021 07/21/2021-07/23/2021  08/16/2021-08/20/2021 09/15/2021-09/17/2021  11/10/2021-11/16/2021 12/08/2021-12/14/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">[If yes to apply for unemployment benefits]
 Are you currently receiving unemployment benefits?
 </t>
@@ -57,6 +90,16 @@
   <si>
     <t>• Yes
 • No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06/2020-04/13/2020 04/14/2020-04/20/2020  
+04/21/2020-04/27/2020 
+04/28/2020-05/04/2020 
+05/05/2020-05/11/2020
+05/11/2020-05/18/2020 05/18/2020-05/21/2020   
+05/25/2020-05/28/2020 06/01/2020-06/04/2020  06/08/2020-06/11/2020 06/15/2020-06/18/2020 06/22/2020-06/25/2020 06/29/2020-07/02/2020 07/06/2020-07/09/2020 07/13/2020-07/16/2020
+07/20/2020-07/23/2020 07/27/2020-07/30/2020 08/03/2020-08/07/2020   08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 12/01/2020-12/03/2020 01/05/2021-01/07/2021 02/03/2021-02/06/2021 03/02/2021-03/05/2021  
+03/31/2021-04/02/2021   04/28/2021-05/01/2021  05/25/2021-05/28/2021 07/21/2021-07/23/2021  08/16/2021-08/20/2021 09/15/2021-09/17/2021  11/10/2021-11/16/2021 12/08/2021-12/14/2021 </t>
   </si>
   <si>
     <t>[If yes to currently receiving unemployment benefits]
@@ -70,6 +113,9 @@
 • Extremely worried</t>
   </si>
   <si>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 12/01/2020-12/03/2020 01/05/2021-01/07/2021 02/03/2021-02/06/2021 03/02/2021-03/05/2021   03/31/2021-04/02/2021   04/28/2021-05/01/2021  05/25/2021-05/28/2021 07/21/2021-07/23/2021  08/16/2021-08/20/2021 09/15/2021-09/17/2021  11/10/2021-11/16/2021 12/08/2021-12/14/2021</t>
+  </si>
+  <si>
     <t>[If yes to received unemployment benefits]
 Have you recently lost your unemployment benfits?</t>
   </si>
@@ -86,6 +132,9 @@
 • Yes, I was approved and received them
 • No
 • Not applicable</t>
+  </si>
+  <si>
+    <t>08/24/2020-08/27/2020 10/05/2020-10/08/2020 09/08/2020-09/10/2020 09/21/2020-09/24/2020 10/05/2020-10/08/2020 12/01/2020-12/03/2020 01/05/2021-01/07/2021 02/03/2021-02/06/2021 03/02/2021-03/05/2021  03/31/2021-04/02/2021   04/28/2021-05/01/2021  05/25/2021-05/28/2021 07/21/2021-07/23/2021  08/16/2021-08/20/2021 09/15/2021-09/17/2021  11/10/2021-11/16/2021 12/08/2021-12/14/2021</t>
   </si>
   <si>
     <t>[If yes  to approved to receive unemployment benefits]
@@ -98,62 +147,12 @@
 • Easy
 • Very Easy</t>
   </si>
-  <si>
-    <t>• Yes, I received unemployment benefits, but not the $600 unemployment bonus related to COVID-Aug 10 - Aug 13
-• Yes, I received unemployment benefits, including the $600 unemployment bonus related to COVID-Aug 10 - Aug 13
-• No, I did not receive unemployment benefits</t>
-  </si>
-  <si>
-    <t>• Yes, I received unemployment benefits, but not the $300 unemployment bonus related to COVID-Aug 10 - Aug 13
-• Yes, I received unemployment benefits, including the $300 unemployment bonus related to COVID-Aug 10 - Aug 13
-• No, I did not receive unemployment benefits</t>
-  </si>
-  <si>
-    <t>Aug 10 - Aug 13, Aug 24 - Aug Oct 5 - Oct 8, Sept 8 - Sept 10, Sept 21 - Sept 24, Oct 5 - Oct 8, Dec 1 - Dec 3, Jan 5 - Jan 7, Feb 3 - Feb 6, March 2 - March 5</t>
-  </si>
-  <si>
-    <t>Dates Used</t>
-  </si>
-  <si>
-    <t>Aug 10 - Aug 13, Aug 24 - Aug Oct 5 - Oct 8, Sept 8 - Sept 10, Sept 21 - Sept 24, Oct 5 - Oct 8, Dec 1 - Dec 3, Jan 5 - Jan 7, Feb 3 - Feb 6, March 2 - March 5, March 31 - April 2, April 28 - May 1, May 25 - May 28, July 21 - July 23, Aug 16 - Aug 20, September 15 - September 17, November 10 - November 16, December 8 - December 14</t>
-  </si>
-  <si>
-    <t>March 31 - April 2, April 28 - May 1, May 25 - May 28, July 21 - July 23, Aug 16 - Aug 20, September 15 - September 17, November 10 - November 16, December 8 - December 14</t>
-  </si>
-  <si>
-    <t>Aug 10 - Aug 13, Aug 24 - Aug Oct 5 - Oct 8, Sept 8 - Sept 10, Sept 21 - Sept 24, Oct 5 - Oct 8, Dec 1 - Dec 3, Jan 5 - Jan 7, Feb 3 - Feb 6, March 2 - March 5, March 31 - April 2, April 28 - May 1,  May 25 - May 28, July 21 - July 23, Aug 16 - Aug 20, September 15 - September 17, November 10 - November 16, December 8 - December 14</t>
-  </si>
-  <si>
-    <t>Aug 24 - Aug Oct 5 - Oct 8, Sept 8 - Sept 10, Sept 21 - Sept 24, Oct 5 - Oct 8, Dec 1 - Dec 3, Jan 5 - Jan 7, Feb 3 - Feb 6, March 2 - March 5, March 31 - April 2, April 28 - May 1, May 25 - May 28, July 21 - July 23, Aug 16 - Aug 20, September 15 - September 17, November 10 - November 16, December 8 - December 14</t>
-  </si>
-  <si>
-    <t>April 6 - April 13
-April 14 - April 20 
-April 21 - April 27
-April 28 - May 04 
-May 05 - May 11
-May 11 - May 18
-May 18 - May 21
-May 25 - May 28 
-June 1 - June 4 
-June 8 - June 11
-June 15 - June 18
-June 22 - June 25
-June 29 - July 2
-July 6 - July 9
-July 13 - July 16
-July 20 - July 23
-July 27 -July 30 
-Aug 03 - Aug 07
-Aug 10 - Aug 13
-Aug 17 - Aug 20 , Aug 24 - Aug Oct 5 - Oct 8, Sept 8 - Sept 10, Sept 21 - Sept 24, Oct 5 - Oct 8, Dec 1 - Dec 3, Jan 5 - Jan 7, Feb 3 - Feb 6, March 2 - March 5, March 31 - April 2, April 28 - May 1, May 25 - May 28, July 21 - July 23, Aug 16 - Aug 20, September 15 - September 17, November 10 - November 16, December 8 - December 14</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1388,20 +1387,20 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="22.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1415,137 +1414,137 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="248" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="283.5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="157.5">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="126">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="409.6">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="283.5">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="283.5">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="267.75">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="267.75">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
